--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_remove/rem1/42/word_level_predictions_42.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G121" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F186" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G186" s="2" t="b">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L186" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
